--- a/bowler/BowlerOuter.xlsx
+++ b/bowler/BowlerOuter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishita.kedia\Documents\Python Scripts\ipl\bowler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B8EDD7-0628-47AD-AD73-CC0008CF07EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8C24EC-07E3-4E2C-9B0B-379FB8C80F76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2"/>
   </bookViews>
@@ -2115,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L406"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2305,6 +2305,9 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2378,6 +2381,9 @@
       <c r="K7">
         <v>4</v>
       </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2452,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="L9">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2603,6 +2609,9 @@
       <c r="K13">
         <v>0</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2639,7 +2648,7 @@
         <v>51</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3247,7 +3256,7 @@
         <v>54</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3399,7 +3408,7 @@
         <v>27</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3665,7 +3674,7 @@
         <v>43</v>
       </c>
       <c r="L41">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3703,7 +3712,7 @@
         <v>34</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3893,7 +3902,7 @@
         <v>24</v>
       </c>
       <c r="L47">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3969,7 +3978,7 @@
         <v>27</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4007,7 +4016,7 @@
         <v>16</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4197,7 +4206,7 @@
         <v>231</v>
       </c>
       <c r="L55">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4235,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4311,7 +4320,7 @@
         <v>14</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4387,7 +4396,7 @@
         <v>26</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4463,7 +4472,7 @@
         <v>38</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4501,7 +4510,7 @@
         <v>7</v>
       </c>
       <c r="L63">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -4729,7 +4738,7 @@
         <v>18</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4919,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4995,7 +5004,7 @@
         <v>84</v>
       </c>
       <c r="L76">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5033,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="L77">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5261,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="L83">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5299,7 +5308,7 @@
         <v>20</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5450,6 +5459,9 @@
       <c r="K88">
         <v>0</v>
       </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -5523,6 +5535,9 @@
       <c r="K90">
         <v>4</v>
       </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -5711,7 +5726,7 @@
         <v>36</v>
       </c>
       <c r="L95">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -5977,7 +5992,7 @@
         <v>94</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -6205,7 +6220,7 @@
         <v>166</v>
       </c>
       <c r="L108">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6243,7 +6258,7 @@
         <v>29</v>
       </c>
       <c r="L109">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6281,7 +6296,7 @@
         <v>183</v>
       </c>
       <c r="L110">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6547,7 +6562,7 @@
         <v>11</v>
       </c>
       <c r="L117">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -6736,6 +6751,9 @@
       <c r="K122">
         <v>2</v>
       </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -6771,6 +6789,9 @@
       <c r="K123">
         <v>11</v>
       </c>
+      <c r="L123">
+        <v>7</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -6806,6 +6827,9 @@
       <c r="K124">
         <v>0</v>
       </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -6841,6 +6865,9 @@
       <c r="K125">
         <v>6</v>
       </c>
+      <c r="L125">
+        <v>8</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -6877,7 +6904,7 @@
         <v>26</v>
       </c>
       <c r="L126">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -6915,7 +6942,7 @@
         <v>38</v>
       </c>
       <c r="L127">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -6953,7 +6980,7 @@
         <v>124</v>
       </c>
       <c r="L128">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -7105,7 +7132,7 @@
         <v>201</v>
       </c>
       <c r="L132">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -7142,6 +7169,9 @@
       <c r="K133">
         <v>2</v>
       </c>
+      <c r="L133">
+        <v>9</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -7254,7 +7284,7 @@
         <v>8</v>
       </c>
       <c r="L136">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7329,6 +7359,9 @@
       <c r="K138">
         <v>31</v>
       </c>
+      <c r="L138">
+        <v>27</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -7364,6 +7397,9 @@
       <c r="K139">
         <v>13</v>
       </c>
+      <c r="L139">
+        <v>5</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -7437,6 +7473,9 @@
       <c r="K141">
         <v>1</v>
       </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -7472,6 +7511,9 @@
       <c r="K142">
         <v>1</v>
       </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -7508,7 +7550,7 @@
         <v>8</v>
       </c>
       <c r="L143">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -7622,7 +7664,7 @@
         <v>17</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -7736,7 +7778,7 @@
         <v>87</v>
       </c>
       <c r="L149">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -7964,7 +8006,7 @@
         <v>95</v>
       </c>
       <c r="L155">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -8343,6 +8385,9 @@
       <c r="K165">
         <v>21</v>
       </c>
+      <c r="L165">
+        <v>20</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -8416,6 +8461,9 @@
       <c r="K167">
         <v>34</v>
       </c>
+      <c r="L167">
+        <v>12</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -8451,6 +8499,9 @@
       <c r="K168">
         <v>3</v>
       </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -8486,6 +8537,9 @@
       <c r="K169">
         <v>1</v>
       </c>
+      <c r="L169">
+        <v>9</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -8522,7 +8576,7 @@
         <v>29</v>
       </c>
       <c r="L170">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8750,7 +8804,7 @@
         <v>31</v>
       </c>
       <c r="L176">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -8863,6 +8917,9 @@
       <c r="K179">
         <v>4</v>
       </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -9051,7 +9108,7 @@
         <v>26</v>
       </c>
       <c r="L184">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -9203,7 +9260,7 @@
         <v>9</v>
       </c>
       <c r="L188">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -9316,6 +9373,9 @@
       <c r="K191">
         <v>7</v>
       </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -9351,6 +9411,9 @@
       <c r="K192">
         <v>0</v>
       </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
@@ -9386,6 +9449,9 @@
       <c r="K193">
         <v>15</v>
       </c>
+      <c r="L193">
+        <v>13</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -9421,6 +9487,9 @@
       <c r="K194">
         <v>7</v>
       </c>
+      <c r="L194">
+        <v>4</v>
+      </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -9722,6 +9791,9 @@
       <c r="K202">
         <v>5</v>
       </c>
+      <c r="L202">
+        <v>13</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
@@ -9758,7 +9830,7 @@
         <v>3</v>
       </c>
       <c r="L203">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -9833,6 +9905,9 @@
       <c r="K205">
         <v>0</v>
       </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -9906,6 +9981,9 @@
       <c r="K207">
         <v>0</v>
       </c>
+      <c r="L207">
+        <v>16</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -10055,6 +10133,9 @@
       <c r="K211">
         <v>4</v>
       </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -10090,6 +10171,9 @@
       <c r="K212">
         <v>20</v>
       </c>
+      <c r="L212">
+        <v>18</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -10163,6 +10247,9 @@
       <c r="K214">
         <v>0</v>
       </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -10427,7 +10514,7 @@
         <v>104</v>
       </c>
       <c r="L221">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -10579,7 +10666,7 @@
         <v>109</v>
       </c>
       <c r="L225">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -10693,7 +10780,7 @@
         <v>131</v>
       </c>
       <c r="L228">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -10769,7 +10856,7 @@
         <v>9</v>
       </c>
       <c r="L230">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -10882,6 +10969,9 @@
       <c r="K233">
         <v>0</v>
       </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
@@ -11032,7 +11122,7 @@
         <v>22</v>
       </c>
       <c r="L237">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -11070,7 +11160,7 @@
         <v>79</v>
       </c>
       <c r="L238">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -11108,7 +11198,7 @@
         <v>23</v>
       </c>
       <c r="L239">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -11146,7 +11236,7 @@
         <v>25</v>
       </c>
       <c r="L240">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -11184,7 +11274,7 @@
         <v>3</v>
       </c>
       <c r="L241">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -11221,6 +11311,9 @@
       <c r="K242">
         <v>23</v>
       </c>
+      <c r="L242">
+        <v>12</v>
+      </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
@@ -11484,6 +11577,9 @@
       <c r="K249">
         <v>6</v>
       </c>
+      <c r="L249">
+        <v>5</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
@@ -11595,6 +11691,9 @@
       <c r="K252">
         <v>31</v>
       </c>
+      <c r="L252">
+        <v>16</v>
+      </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
@@ -11669,7 +11768,7 @@
         <v>7</v>
       </c>
       <c r="L254">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -11782,6 +11881,9 @@
       <c r="K257">
         <v>0</v>
       </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
@@ -11817,6 +11919,9 @@
       <c r="K258">
         <v>2</v>
       </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -12119,7 +12224,7 @@
         <v>58</v>
       </c>
       <c r="L266">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -12309,7 +12414,7 @@
         <v>136</v>
       </c>
       <c r="L271">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12498,6 +12603,9 @@
       <c r="K276">
         <v>1</v>
       </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
@@ -12571,6 +12679,9 @@
       <c r="K278">
         <v>2</v>
       </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
@@ -12721,7 +12832,7 @@
         <v>2</v>
       </c>
       <c r="L282">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12759,7 +12870,7 @@
         <v>126</v>
       </c>
       <c r="L283">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -12797,7 +12908,7 @@
         <v>22</v>
       </c>
       <c r="L284">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -12911,7 +13022,7 @@
         <v>7</v>
       </c>
       <c r="L287">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -13519,7 +13630,7 @@
         <v>22</v>
       </c>
       <c r="L303">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -13632,6 +13743,9 @@
       <c r="K306">
         <v>10</v>
       </c>
+      <c r="L306">
+        <v>11</v>
+      </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
@@ -13705,6 +13819,9 @@
       <c r="K308">
         <v>0</v>
       </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
@@ -13741,7 +13858,7 @@
         <v>7</v>
       </c>
       <c r="L309">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -13779,7 +13896,7 @@
         <v>47</v>
       </c>
       <c r="L310">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -13854,6 +13971,9 @@
       <c r="K312">
         <v>1</v>
       </c>
+      <c r="L312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
@@ -13927,6 +14047,9 @@
       <c r="K314">
         <v>12</v>
       </c>
+      <c r="L314">
+        <v>14</v>
+      </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -13962,6 +14085,9 @@
       <c r="K315">
         <v>13</v>
       </c>
+      <c r="L315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
@@ -13997,6 +14123,9 @@
       <c r="K316">
         <v>0</v>
       </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
@@ -14033,7 +14162,7 @@
         <v>45</v>
       </c>
       <c r="L317">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -14184,6 +14313,9 @@
       <c r="K321">
         <v>0</v>
       </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
@@ -14219,6 +14351,9 @@
       <c r="K322">
         <v>13</v>
       </c>
+      <c r="L322">
+        <v>13</v>
+      </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
@@ -14406,6 +14541,9 @@
       <c r="K327">
         <v>9</v>
       </c>
+      <c r="L327">
+        <v>2</v>
+      </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
@@ -14974,7 +15112,7 @@
         <v>185</v>
       </c>
       <c r="L342">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
@@ -15163,6 +15301,9 @@
       <c r="K347">
         <v>0</v>
       </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
@@ -15199,7 +15340,7 @@
         <v>48</v>
       </c>
       <c r="L348">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
@@ -15237,7 +15378,7 @@
         <v>116</v>
       </c>
       <c r="L349">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
@@ -15351,7 +15492,7 @@
         <v>139</v>
       </c>
       <c r="L352">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
@@ -15541,7 +15682,7 @@
         <v>26</v>
       </c>
       <c r="L357">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
@@ -15655,7 +15796,7 @@
         <v>157</v>
       </c>
       <c r="L360">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
@@ -15731,7 +15872,7 @@
         <v>64</v>
       </c>
       <c r="L362">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
@@ -16034,6 +16175,9 @@
       <c r="K370">
         <v>2</v>
       </c>
+      <c r="L370">
+        <v>6</v>
+      </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
@@ -16222,7 +16366,7 @@
         <v>66</v>
       </c>
       <c r="L375">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
@@ -16260,7 +16404,7 @@
         <v>82</v>
       </c>
       <c r="L376">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
@@ -16526,7 +16670,7 @@
         <v>176</v>
       </c>
       <c r="L383">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
@@ -16601,6 +16745,9 @@
       <c r="K385">
         <v>1</v>
       </c>
+      <c r="L385">
+        <v>1</v>
+      </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
@@ -16751,7 +16898,7 @@
         <v>0</v>
       </c>
       <c r="L389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
@@ -16789,7 +16936,7 @@
         <v>55</v>
       </c>
       <c r="L390">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
@@ -17093,7 +17240,7 @@
         <v>25</v>
       </c>
       <c r="L398">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
@@ -17283,7 +17430,7 @@
         <v>59</v>
       </c>
       <c r="L403">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
@@ -17321,7 +17468,7 @@
         <v>54</v>
       </c>
       <c r="L404">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
@@ -17410,7 +17557,7 @@
   <dimension ref="A1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:L406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32067,7 +32214,7 @@
   <dimension ref="A1:L406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:L406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
